--- a/data_year/zb/文化/有线广播电视传输干线网络及用户情况.xlsx
+++ b/data_year/zb/文化/有线广播电视传输干线网络及用户情况.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,393 +473,333 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
+          <t>2010年</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1105.0627</v>
+      </c>
       <c r="C2" t="n">
-        <v>5490</v>
-      </c>
-      <c r="D2" t="inlineStr"/>
+        <v>7293</v>
+      </c>
+      <c r="D2" t="n">
+        <v>29.3515368800661</v>
+      </c>
       <c r="E2" t="n">
-        <v>1266</v>
+        <v>8870</v>
       </c>
       <c r="F2" t="n">
-        <v>272.2</v>
+        <v>356.335949</v>
       </c>
       <c r="G2" t="n">
-        <v>13995</v>
-      </c>
-      <c r="H2" t="inlineStr"/>
+        <v>18872.2</v>
+      </c>
+      <c r="H2" t="n">
+        <v>46.4043006009759</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
+          <t>2011年</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>1760.5858</v>
+      </c>
       <c r="C3" t="n">
-        <v>6180</v>
-      </c>
-      <c r="D3" t="inlineStr"/>
+        <v>8123.2389</v>
+      </c>
+      <c r="D3" t="n">
+        <v>32.3758148512411</v>
+      </c>
       <c r="E3" t="n">
-        <v>2686</v>
+        <v>11488.9599</v>
       </c>
       <c r="F3" t="n">
-        <v>301.3</v>
+        <v>369.726172</v>
       </c>
       <c r="G3" t="n">
-        <v>15325</v>
-      </c>
-      <c r="H3" t="inlineStr"/>
+        <v>20264.3918</v>
+      </c>
+      <c r="H3" t="n">
+        <v>49.4275350112397</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
+          <t>2012年</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>2501.1234</v>
+      </c>
       <c r="C4" t="n">
-        <v>6558</v>
-      </c>
-      <c r="D4" t="inlineStr"/>
+        <v>8432.268700000001</v>
+      </c>
+      <c r="D4" t="n">
+        <v>33.4856217393611</v>
+      </c>
       <c r="E4" t="n">
-        <v>4528</v>
+        <v>14303.0715</v>
       </c>
       <c r="F4" t="n">
-        <v>320.5</v>
+        <v>376.120561</v>
       </c>
       <c r="G4" t="n">
-        <v>16398</v>
-      </c>
-      <c r="H4" t="inlineStr"/>
+        <v>21508.9705</v>
+      </c>
+      <c r="H4" t="n">
+        <v>51.4977284548037</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr"/>
+          <t>2013年</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>3498.4062</v>
+      </c>
       <c r="C5" t="n">
-        <v>6863</v>
-      </c>
-      <c r="D5" t="inlineStr"/>
+        <v>8911.321599999999</v>
+      </c>
+      <c r="D5" t="n">
+        <v>35.2946803398021</v>
+      </c>
       <c r="E5" t="n">
-        <v>6322</v>
-      </c>
-      <c r="F5" t="inlineStr"/>
+        <v>17159.6898</v>
+      </c>
+      <c r="F5" t="n">
+        <v>381.588686</v>
+      </c>
       <c r="G5" t="n">
-        <v>17523</v>
-      </c>
-      <c r="H5" t="inlineStr"/>
+        <v>22893.7963</v>
+      </c>
+      <c r="H5" t="n">
+        <v>54.1394430114625</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1105.0627</v>
+        <v>4505.4073</v>
       </c>
       <c r="C6" t="n">
-        <v>7293</v>
+        <v>7986.3578</v>
       </c>
       <c r="D6" t="n">
-        <v>29.3515368800661</v>
+        <v>31.547915726</v>
       </c>
       <c r="E6" t="n">
-        <v>8870</v>
+        <v>19143.212</v>
       </c>
       <c r="F6" t="n">
-        <v>356.335949</v>
+        <v>415.339016</v>
       </c>
       <c r="G6" t="n">
-        <v>18872.2</v>
+        <v>23458.2304</v>
       </c>
       <c r="H6" t="n">
-        <v>46.4043006009759</v>
+        <v>54.8180292171</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1760.5858</v>
+        <v>5559.0756</v>
       </c>
       <c r="C7" t="n">
-        <v>8123.2389</v>
+        <v>8250.4655</v>
       </c>
       <c r="D7" t="n">
-        <v>32.3758148512411</v>
+        <v>33.4944006449</v>
       </c>
       <c r="E7" t="n">
-        <v>11488.9599</v>
+        <v>19775.5872</v>
       </c>
       <c r="F7" t="n">
-        <v>369.726172</v>
+        <v>426.183327</v>
       </c>
       <c r="G7" t="n">
-        <v>20264.3918</v>
+        <v>23566.7525</v>
       </c>
       <c r="H7" t="n">
-        <v>49.4275350112397</v>
+        <v>54.6298109342</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2501.1234</v>
+        <v>5817.15</v>
       </c>
       <c r="C8" t="n">
-        <v>8432.268700000001</v>
+        <v>8093</v>
       </c>
       <c r="D8" t="n">
-        <v>33.4856217393611</v>
+        <v>33.17</v>
       </c>
       <c r="E8" t="n">
-        <v>14303.0715</v>
+        <v>20157</v>
       </c>
       <c r="F8" t="n">
-        <v>376.120561</v>
+        <v>477.61</v>
       </c>
       <c r="G8" t="n">
-        <v>21508.9705</v>
+        <v>22830</v>
       </c>
       <c r="H8" t="n">
-        <v>51.4977284548037</v>
+        <v>52.75</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2013年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3498.4062</v>
+        <v>7013.78</v>
       </c>
       <c r="C9" t="n">
-        <v>8911.321599999999</v>
+        <v>7503.53</v>
       </c>
       <c r="D9" t="n">
-        <v>35.2946803398021</v>
+        <v>31.7</v>
       </c>
       <c r="E9" t="n">
-        <v>17159.6898</v>
+        <v>19404.43</v>
       </c>
       <c r="F9" t="n">
-        <v>381.588686</v>
+        <v>214.52</v>
       </c>
       <c r="G9" t="n">
-        <v>22893.7963</v>
+        <v>21445.63</v>
       </c>
       <c r="H9" t="n">
-        <v>54.1394430114625</v>
+        <v>48.32</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2014年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4505.4073</v>
+        <v>7729.9</v>
       </c>
       <c r="C10" t="n">
-        <v>7986.3578</v>
+        <v>7404</v>
       </c>
       <c r="D10" t="n">
-        <v>31.547915726</v>
+        <v>31.19</v>
       </c>
       <c r="E10" t="n">
-        <v>19143.212</v>
+        <v>20143.7</v>
       </c>
       <c r="F10" t="n">
-        <v>415.339016</v>
+        <v>225.3</v>
       </c>
       <c r="G10" t="n">
-        <v>23458.2304</v>
+        <v>21832.4</v>
       </c>
       <c r="H10" t="n">
-        <v>54.8180292171</v>
+        <v>49.01</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2015年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>5559.0756</v>
+        <v>7986.5</v>
       </c>
       <c r="C11" t="n">
-        <v>8250.4655</v>
+        <v>7073.9</v>
       </c>
       <c r="D11" t="n">
-        <v>33.4944006449</v>
+        <v>30.5</v>
       </c>
       <c r="E11" t="n">
-        <v>19775.5872</v>
+        <v>19417.44</v>
       </c>
       <c r="F11" t="n">
-        <v>426.183327</v>
+        <v>218.9</v>
       </c>
       <c r="G11" t="n">
-        <v>23566.7525</v>
+        <v>20661.43</v>
       </c>
       <c r="H11" t="n">
-        <v>54.6298109342</v>
+        <v>46.217814877426</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>5817.15</v>
-      </c>
+          <t>2020年</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
       <c r="C12" t="n">
-        <v>8093</v>
+        <v>7055.46</v>
       </c>
       <c r="D12" t="n">
-        <v>33.17</v>
+        <v>30.18</v>
       </c>
       <c r="E12" t="n">
-        <v>20157</v>
+        <v>19888.74</v>
       </c>
       <c r="F12" t="n">
-        <v>477.61</v>
+        <v>227.63</v>
       </c>
       <c r="G12" t="n">
-        <v>22830</v>
+        <v>20745.3</v>
       </c>
       <c r="H12" t="n">
-        <v>52.75</v>
+        <v>46.23</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>7013.78</v>
-      </c>
+          <t>2021年</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
       <c r="C13" t="n">
-        <v>7503.53</v>
+        <v>6718.86</v>
       </c>
       <c r="D13" t="n">
-        <v>31.7</v>
+        <v>33.11</v>
       </c>
       <c r="E13" t="n">
-        <v>19404.43</v>
+        <v>19634.49</v>
       </c>
       <c r="F13" t="n">
-        <v>214.52</v>
+        <v>220.63</v>
       </c>
       <c r="G13" t="n">
-        <v>21445.63</v>
+        <v>20423.18</v>
       </c>
       <c r="H13" t="n">
-        <v>48.32</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>7729.9</v>
-      </c>
-      <c r="C14" t="n">
-        <v>7404</v>
-      </c>
-      <c r="D14" t="n">
-        <v>31.19</v>
-      </c>
-      <c r="E14" t="n">
-        <v>20143.7</v>
-      </c>
-      <c r="F14" t="n">
-        <v>225.3</v>
-      </c>
-      <c r="G14" t="n">
-        <v>21832.4</v>
-      </c>
-      <c r="H14" t="n">
-        <v>49.01</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>7986.5</v>
-      </c>
-      <c r="C15" t="n">
-        <v>7322.1</v>
-      </c>
-      <c r="D15" t="n">
-        <v>31.6644304659194</v>
-      </c>
-      <c r="E15" t="n">
-        <v>19417.44</v>
-      </c>
-      <c r="F15" t="n">
-        <v>218.9</v>
-      </c>
-      <c r="G15" t="n">
-        <v>20661.43</v>
-      </c>
-      <c r="H15" t="n">
-        <v>46.217814877426</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="n">
-        <v>7055.46</v>
-      </c>
-      <c r="D16" t="n">
-        <v>30.18</v>
-      </c>
-      <c r="E16" t="n">
-        <v>19888.74</v>
-      </c>
-      <c r="F16" t="n">
-        <v>227.63</v>
-      </c>
-      <c r="G16" t="n">
-        <v>20745.3</v>
-      </c>
-      <c r="H16" t="n">
-        <v>46.23</v>
+        <v>44.63</v>
       </c>
     </row>
   </sheetData>
